--- a/datatables/Performance_Usuario.XLSX
+++ b/datatables/Performance_Usuario.XLSX
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -22,49 +22,49 @@
     <t>Tamires Teixeira</t>
   </si>
   <si>
+    <t>Natalia Farias</t>
+  </si>
+  <si>
     <t>Daniela Fernandes</t>
   </si>
   <si>
     <t>Vania Fagundes</t>
   </si>
   <si>
+    <t>Adriana Hunhoff</t>
+  </si>
+  <si>
     <t>Nicolas Silva</t>
   </si>
   <si>
-    <t>Natalia Farias</t>
-  </si>
-  <si>
-    <t>Adriana Hunhoff</t>
-  </si>
-  <si>
     <t>Luana Umpierre</t>
   </si>
   <si>
+    <t>Carlla Bo</t>
+  </si>
+  <si>
+    <t>Dominique Daudt</t>
+  </si>
+  <si>
     <t>Josue Alos</t>
   </si>
   <si>
+    <t>Igor Martins</t>
+  </si>
+  <si>
+    <t>Alexia Pereira</t>
+  </si>
+  <si>
+    <t>Julio Acauan</t>
+  </si>
+  <si>
+    <t>Daniel Machado</t>
+  </si>
+  <si>
+    <t>Brenda Pereira</t>
+  </si>
+  <si>
     <t>Amanda Bernardes</t>
-  </si>
-  <si>
-    <t>Igor Martins</t>
-  </si>
-  <si>
-    <t>Daniel Machado</t>
-  </si>
-  <si>
-    <t>Alexia Pereira</t>
-  </si>
-  <si>
-    <t>Carlla Bo</t>
-  </si>
-  <si>
-    <t>Julio Acauan</t>
-  </si>
-  <si>
-    <t>Brenda Pereira</t>
-  </si>
-  <si>
-    <t>Dominique Daudt</t>
   </si>
   <si>
     <t>Eduarda Santos</t>
@@ -200,6 +200,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -542,19 +547,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -566,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -574,31 +579,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
-        <v>8</v>
-      </c>
       <c r="D3" s="2">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
       </c>
       <c r="I3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -606,31 +611,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
       <c r="J4" s="2">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -638,31 +643,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -670,7 +675,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -679,10 +684,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -691,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J6" s="2">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -702,19 +707,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -723,10 +728,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -734,7 +739,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -743,13 +748,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -758,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -766,7 +771,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -775,22 +780,22 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -798,7 +803,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -807,13 +812,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -822,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -830,31 +835,31 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
       <c r="J11" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -862,7 +867,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -871,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -886,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -903,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -918,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1278,31 +1283,31 @@
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C25" s="4">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D25" s="4">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="E25" s="4">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F25" s="4">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="G25" s="4">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H25" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I25" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J25" s="4">
-        <v>584</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>

--- a/datatables/Performance_Usuario.XLSX
+++ b/datatables/Performance_Usuario.XLSX
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="11760"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -121,8 +121,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -283,6 +283,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -317,6 +318,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -492,12 +494,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -510,7 +512,7 @@
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -542,7 +544,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -574,7 +576,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -606,7 +608,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -638,7 +640,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -670,7 +672,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -702,7 +704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -734,7 +736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -766,7 +768,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -798,7 +800,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -830,7 +832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -862,7 +864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -894,7 +896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -926,7 +928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -958,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -990,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1022,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1086,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1118,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1150,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1182,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1214,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1246,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1278,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
